--- a/Dictionaries/DIGGSGroutInjectionPropertyDefinitions.xlsx
+++ b/Dictionaries/DIGGSGroutInjectionPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E2A1D7-150F-E745-85CE-588C29A64B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{114AAF14-3530-B84B-8389-14517ACB3FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="2560" windowWidth="41460" windowHeight="28240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="42600" windowHeight="27620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>Code</t>
   </si>
@@ -150,18 +149,9 @@
     <t>take</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>drilling_index</t>
   </si>
   <si>
-    <t>drilling_speed</t>
-  </si>
-  <si>
-    <t>fluid_1_pressure</t>
-  </si>
-  <si>
     <t>fluid_2_flow</t>
   </si>
   <si>
@@ -186,9 +176,6 @@
     <t>micro_motion_volume</t>
   </si>
   <si>
-    <t>pull_speed</t>
-  </si>
-  <si>
     <t>rotary_pressure</t>
   </si>
   <si>
@@ -201,18 +188,9 @@
     <t>torque</t>
   </si>
   <si>
-    <t>fluid_1_temperature</t>
-  </si>
-  <si>
-    <t>fluid_1_flow</t>
-  </si>
-  <si>
     <t>line_loss</t>
   </si>
   <si>
-    <t>apparent lugeon valuie</t>
-  </si>
-  <si>
     <t>column pressure</t>
   </si>
   <si>
@@ -222,9 +200,6 @@
     <t>drilling index</t>
   </si>
   <si>
-    <t>drilling speed</t>
-  </si>
-  <si>
     <t>effective pressure</t>
   </si>
   <si>
@@ -285,9 +260,6 @@
     <t>packer pressure</t>
   </si>
   <si>
-    <t>pull speed</t>
-  </si>
-  <si>
     <t>rotary pressure</t>
   </si>
   <si>
@@ -309,9 +281,6 @@
     <t>volume per time</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
@@ -324,54 +293,33 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Depth of the monitor at a specific time instance</t>
-  </si>
-  <si>
     <t>/diggs:Diggs/diggs:constructionActivity/diggs:BoreholeGroutingActivity/diggs:groutStage/diggs:GroutStage</t>
   </si>
   <si>
     <t>/diggs:Diggs/diggs:constructionActivity/diggs:BoreholeGroutingActivity/diggs:continuousGrouting/diggs:ContinuousGrouting</t>
   </si>
   <si>
-    <t>Advance rate of the monitor while drilling downward</t>
-  </si>
-  <si>
     <t>Amount of time since start of an injection period</t>
   </si>
   <si>
-    <t>Pressure reading of fluid 1 during injection</t>
-  </si>
-  <si>
-    <t>Temperature of fluid 1</t>
-  </si>
-  <si>
     <t>Pressure reading of fluid 2 during injection</t>
   </si>
   <si>
     <t>Temperature of fluid 2</t>
   </si>
   <si>
-    <t>Pressure measured at the base of the column</t>
-  </si>
-  <si>
     <t>Pressure measured at the gauge</t>
   </si>
   <si>
     <t>Rate of flow of the grout component during injection</t>
   </si>
   <si>
-    <t>Rate of flow of the fluid 1 component (either water or air) as defined in the instance</t>
-  </si>
-  <si>
     <t>Rate of flow of the fluid 2 component (either water or air) as defined in the instance</t>
   </si>
   <si>
     <t>grout specific gravity</t>
   </si>
   <si>
-    <t>Pressure reading of the grout (not sure wher this is supposed to be measured)… Used for jet and other grouting</t>
-  </si>
-  <si>
     <t>Temperature of the grout component</t>
   </si>
   <si>
@@ -381,12 +329,6 @@
     <t>Volume of grout injected during the present time interval</t>
   </si>
   <si>
-    <t>Pressure measured at the header pipe</t>
-  </si>
-  <si>
-    <t>Used for grout stage injections - how different from other pressures?</t>
-  </si>
-  <si>
     <t>Flow rate of grout measured by Micro Motion branded sensor</t>
   </si>
   <si>
@@ -396,15 +338,6 @@
     <t>Identifer for the grout mix used</t>
   </si>
   <si>
-    <t>Lift rate of the monitor while grouting</t>
-  </si>
-  <si>
-    <t>Rotational velocity of the monitor</t>
-  </si>
-  <si>
-    <t>energy per mass</t>
-  </si>
-  <si>
     <t>Pressure times flow divided by lift rate. Pressure can be measured at the pump or at the drill rig and is not measured at the nozzle. Lift rate is average uplift distance per unit time. Pressure at the pump can be affected by line type, size, and distance to the rig for constant applied pressure. The energy of the air is usually negligible in this calculation, but does contribute significantly to column diameter. This parameter can be graphed to quickly check jetting records and can be correlated to diameter for all other aspects (especially number of fluids) staying constant during the test program.</t>
   </si>
   <si>
@@ -412,6 +345,108 @@
   </si>
   <si>
     <t>Total volume of grout injected</t>
+  </si>
+  <si>
+    <t>Hydraulic system pressure to spin the drill steel</t>
+  </si>
+  <si>
+    <t>Downward hydraulic pressure of the drill (not at the bit)</t>
+  </si>
+  <si>
+    <t>energy per meter</t>
+  </si>
+  <si>
+    <t>Measure of bit performance calculated using a number of dimensionless parameters</t>
+  </si>
+  <si>
+    <t>Rotational force of the drill</t>
+  </si>
+  <si>
+    <t>Downward force of the drill</t>
+  </si>
+  <si>
+    <t>apparent lugeon value</t>
+  </si>
+  <si>
+    <t>Pressure measured at the header</t>
+  </si>
+  <si>
+    <t>pressure per length</t>
+  </si>
+  <si>
+    <t>Pressure lost through the line</t>
+  </si>
+  <si>
+    <t>Pressure within the packer</t>
+  </si>
+  <si>
+    <t>Pressure felt at injection point (pressure at pump - line loss)</t>
+  </si>
+  <si>
+    <t>Pressure reading of the grout</t>
+  </si>
+  <si>
+    <t>Pressure of the grout being injected (often used for grout stage injections)</t>
+  </si>
+  <si>
+    <t>Calculated hydrostatic pressure on borehole wall</t>
+  </si>
+  <si>
+    <t>blade_rotation_number</t>
+  </si>
+  <si>
+    <t>blade rotation number</t>
+  </si>
+  <si>
+    <t>fluid_3_flow</t>
+  </si>
+  <si>
+    <t>fluid_3_pressure</t>
+  </si>
+  <si>
+    <t>fluid_3_temperature</t>
+  </si>
+  <si>
+    <t>Rate of flow of the fluid 3 component (either water or air) as defined in the instance</t>
+  </si>
+  <si>
+    <t>Pressure reading of fluid 3 during injection</t>
+  </si>
+  <si>
+    <t>Temperature of fluid 3</t>
+  </si>
+  <si>
+    <t>advance_rate</t>
+  </si>
+  <si>
+    <t>advance rate</t>
+  </si>
+  <si>
+    <t>withdrawal_rate</t>
+  </si>
+  <si>
+    <t>Advance rate of the monitor, drill bit, or cutting tool while drilling downward, also known as drilling speed</t>
+  </si>
+  <si>
+    <t>Lift rate of the monitor or cutting tool while grouting, also known as the pull speed</t>
+  </si>
+  <si>
+    <t>measured_distance</t>
+  </si>
+  <si>
+    <t>measured distance</t>
+  </si>
+  <si>
+    <t>Measured depth of the monitor or cutting tool, or the measured distance from the start of a grout trench, at a specific time instance</t>
+  </si>
+  <si>
+    <t>For soil mixing, the total number of mixing blades passing for 1 m of shaft/tool movement</t>
+  </si>
+  <si>
+    <t>Measure of permeability via in-situ pressure testing</t>
+  </si>
+  <si>
+    <t>Rotational velocity of the monitor or cutting tool</t>
   </si>
 </sst>
 </file>
@@ -493,12 +528,14 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,10 +547,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -587,7 +622,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,15 +674,17 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1199,8 +1236,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,143 +1278,152 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1392,7 +1438,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -1413,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -1427,44 +1476,44 @@
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
@@ -1475,20 +1524,20 @@
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1499,44 +1548,44 @@
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1547,20 +1596,20 @@
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1581,10 +1630,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
@@ -1602,22 +1651,22 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1626,13 +1675,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>110</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1653,15 +1702,15 @@
         <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1677,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1698,19 +1747,19 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1725,10 +1774,10 @@
         <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1749,10 +1798,10 @@
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>115</v>
+        <v>68</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -1770,136 +1819,142 @@
         <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>90</v>
+      <c r="G24" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>82</v>
+      <c r="C29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="str">
@@ -1910,10 +1965,13 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
@@ -1931,19 +1989,19 @@
         <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1955,19 +2013,19 @@
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>121</v>
+      <c r="G32" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1982,13 +2040,13 @@
         <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>14</v>
@@ -2007,16 +2065,16 @@
         <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2033,6 +2091,9 @@
       <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E35" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2049,25 +2110,44 @@
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="G37" s="4"/>
+        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
@@ -2857,7 +2937,7 @@
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2885,10 +2965,10 @@
         <v/>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2897,10 +2977,10 @@
         <v/>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2908,11 +2988,11 @@
         <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>97</v>
+      <c r="B4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2921,10 +3001,10 @@
         <v/>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2932,11 +3012,11 @@
         <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,10 +3025,10 @@
         <v/>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2960,7 +3040,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2972,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2984,7 +3064,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2993,10 +3073,10 @@
         <v/>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3005,10 +3085,10 @@
         <v/>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3017,10 +3097,10 @@
         <v/>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3029,10 +3109,10 @@
         <v/>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,10 +3121,10 @@
         <v/>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3053,10 +3133,10 @@
         <v/>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3068,7 +3148,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,10 +3157,10 @@
         <v/>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3089,10 +3169,10 @@
         <v/>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3101,10 +3181,10 @@
         <v/>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,10 +3193,10 @@
         <v/>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3128,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,8 +3219,8 @@
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>97</v>
+      <c r="C23" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3152,7 +3232,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,8 +3243,8 @@
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>97</v>
+      <c r="C25" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3173,10 +3253,10 @@
         <v/>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,8 +3267,8 @@
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>97</v>
+      <c r="C27" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3200,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,10 +3289,10 @@
         <v/>
       </c>
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3221,10 +3301,10 @@
         <v/>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3233,10 +3313,10 @@
         <v/>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>97</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,10 +3325,10 @@
         <v/>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>96</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3256,11 +3336,11 @@
         <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>34</v>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3268,11 +3348,11 @@
         <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>97</v>
+      <c r="B34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3281,10 +3361,10 @@
         <v/>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,10 +3373,10 @@
         <v/>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3305,10 +3385,10 @@
         <v/>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3320,7 +3400,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3331,8 +3411,8 @@
       <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>97</v>
+      <c r="C39" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3343,8 +3423,8 @@
       <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>96</v>
+      <c r="C40" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,8 +3435,8 @@
       <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>97</v>
+      <c r="C41" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3367,8 +3447,8 @@
       <c r="B42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>97</v>
+      <c r="C42" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3377,19 +3457,23 @@
         <v/>
       </c>
       <c r="B43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>97</v>
+        <v>49</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+        <v/>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="str">

--- a/Dictionaries/DIGGSGroutInjectionPropertyDefinitions.xlsx
+++ b/Dictionaries/DIGGSGroutInjectionPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-schema/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114AAF14-3530-B84B-8389-14517ACB3FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB164C1B-4131-6543-ADF5-5A4F1014FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42600" windowHeight="27620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="4380" windowWidth="37440" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AssociatedElements" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="174">
   <si>
     <t>Code</t>
   </si>
@@ -170,12 +171,6 @@
     <t>grout_volume</t>
   </si>
   <si>
-    <t>micro_motion_flow</t>
-  </si>
-  <si>
-    <t>micro_motion_volume</t>
-  </si>
-  <si>
     <t>rotary_pressure</t>
   </si>
   <si>
@@ -206,9 +201,6 @@
     <t>elapsed time</t>
   </si>
   <si>
-    <t>fluid 1 flow</t>
-  </si>
-  <si>
     <t>fluid 1 pressure</t>
   </si>
   <si>
@@ -248,12 +240,6 @@
     <t>line loss</t>
   </si>
   <si>
-    <t>micro motion flow</t>
-  </si>
-  <si>
-    <t>micro motion volume</t>
-  </si>
-  <si>
     <t>grout mix ID</t>
   </si>
   <si>
@@ -290,9 +276,6 @@
     <t>moment of force</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>/diggs:Diggs/diggs:constructionActivity/diggs:BoreholeGroutingActivity/diggs:groutStage/diggs:GroutStage</t>
   </si>
   <si>
@@ -329,12 +312,6 @@
     <t>Volume of grout injected during the present time interval</t>
   </si>
   <si>
-    <t>Flow rate of grout measured by Micro Motion branded sensor</t>
-  </si>
-  <si>
-    <t>Volume of grout measured by Micro Motion branded sensor</t>
-  </si>
-  <si>
     <t>Identifer for the grout mix used</t>
   </si>
   <si>
@@ -447,13 +424,148 @@
   </si>
   <si>
     <t>Rotational velocity of the monitor or cutting tool</t>
+  </si>
+  <si>
+    <t>withdrawal rate</t>
+  </si>
+  <si>
+    <t>trench cutoff wall depth</t>
+  </si>
+  <si>
+    <t>Vertical depth of the grout or slurry trench cutoff wall</t>
+  </si>
+  <si>
+    <t>grout_trench_cutoff_wall_depth</t>
+  </si>
+  <si>
+    <t>Flow rate of grout measured by a mass flow meter</t>
+  </si>
+  <si>
+    <t>mass_flow_meter_volume</t>
+  </si>
+  <si>
+    <t>Volume of grout interpolated by a mass flow meter</t>
+  </si>
+  <si>
+    <t>mass_low_meter_specific_gravity</t>
+  </si>
+  <si>
+    <t>mass flow meter specific gravity</t>
+  </si>
+  <si>
+    <t>mass flow meter volume</t>
+  </si>
+  <si>
+    <t>mass_flow_meter_temperature</t>
+  </si>
+  <si>
+    <t>mass flow meter temperature</t>
+  </si>
+  <si>
+    <t>mass_flow_meter_mass_flow</t>
+  </si>
+  <si>
+    <t>force per time</t>
+  </si>
+  <si>
+    <t>mass_flow_meter_volume_flow</t>
+  </si>
+  <si>
+    <t>mass flow meter flow as volume flow</t>
+  </si>
+  <si>
+    <t>mass flow meter flow as mass flow</t>
+  </si>
+  <si>
+    <t>Grout temperature measured by a mass flow meter</t>
+  </si>
+  <si>
+    <t>Specific gravity  of the soil mix as measured in real time by a mass flow meter</t>
+  </si>
+  <si>
+    <t>binder_factor_in_place</t>
+  </si>
+  <si>
+    <t>binder factor in place</t>
+  </si>
+  <si>
+    <t>Computed bynder factor in real time from a mass flow meter</t>
+  </si>
+  <si>
+    <t>force per volume</t>
+  </si>
+  <si>
+    <t>fluid_2_stroke</t>
+  </si>
+  <si>
+    <t>fluid_3_stroke</t>
+  </si>
+  <si>
+    <t>fluid 2 stroke</t>
+  </si>
+  <si>
+    <t>fluid 3 stroke</t>
+  </si>
+  <si>
+    <t>Horizontal deviation from vertical of the rig masthead in the x-direction. Used for calculating vertical depth (elevation)</t>
+  </si>
+  <si>
+    <t>Horizontal deviation from vertical of the rig masthead in the y-direction. Used for calculating vertical depth (elevation)</t>
+  </si>
+  <si>
+    <t>masthead_deviation_x</t>
+  </si>
+  <si>
+    <t>masthead_deviation_y</t>
+  </si>
+  <si>
+    <t>masthead deviation, x-direction</t>
+  </si>
+  <si>
+    <t>binder_content</t>
+  </si>
+  <si>
+    <t>binder content</t>
+  </si>
+  <si>
+    <t>Ratio of the weight of binder to the weight of soil</t>
+  </si>
+  <si>
+    <t>total tool revolutions</t>
+  </si>
+  <si>
+    <t>The total number of revolutions from grout initiation until the time increment</t>
+  </si>
+  <si>
+    <t>total_tool_revolutions</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>Elevation using sampling feature's vertical datum</t>
+  </si>
+  <si>
+    <t>force per force</t>
+  </si>
+  <si>
+    <t>Number of strokes of the pump injecting fluid 2</t>
+  </si>
+  <si>
+    <t>Number of strokes of the pump injecting fluid 3</t>
+  </si>
+  <si>
+    <t>fluid 3 flow</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,6 +662,20 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -622,7 +748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,35 +762,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -675,8 +785,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -684,7 +794,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -700,7 +813,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -753,6 +866,9 @@
         <vertAlign val="baseline"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -868,35 +984,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:D2" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:D2" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H132" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:I132" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:I132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H132">
     <sortCondition ref="C1:C132"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Data type" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dictionary ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Code" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Data type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UOMType" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{313812A5-E93A-A245-8463-A5AF16FAF51A}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,7 +1302,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1197,17 +1314,17 @@
     <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1234,10 +1351,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,13 +1363,13 @@
     <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1277,9 +1394,12 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="str">
+      <c r="I1" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3036,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -1287,13 +1407,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1301,10 +1421,9 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="str">
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3019,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -1315,10 +1434,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -1326,122 +1445,119 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>117</v>
+        <v>149</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
+      <c r="C6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3020,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3018,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>114</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -1450,142 +1566,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3035,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3021,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>92</v>
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3022,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>89</v>
+        <v>167</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>123</v>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>124</v>
+      <c r="E14" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1594,94 +1710,94 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>125</v>
+        <v>154</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>90</v>
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3038,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>91</v>
+        <v>172</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>115</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1690,46 +1806,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>95</v>
+        <v>155</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1738,70 +1854,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>116</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -1810,444 +1926,633 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3025,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3026,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>97</v>
+        <v>130</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3027,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>99</v>
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3028,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="str">
-        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3029,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>136</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="str">
-        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>101</v>
+        <v>138</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>107</v>
+        <v>160</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>130</v>
+        <v>160</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3034,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3030,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3031,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3032,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
-        <v>Not used</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="str">
+      <c r="A50" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2255,7 +2560,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="str">
+      <c r="A51" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2263,7 +2568,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="str">
+      <c r="A52" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2271,7 +2576,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="str">
+      <c r="A53" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2279,7 +2584,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="str">
+      <c r="A54" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2287,7 +2592,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="str">
+      <c r="A55" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2295,7 +2600,7 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="str">
+      <c r="A56" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2303,7 +2608,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="str">
+      <c r="A57" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2311,7 +2616,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="str">
+      <c r="A58" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2319,7 +2624,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="str">
+      <c r="A59" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2327,7 +2632,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="str">
+      <c r="A60" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2335,7 +2640,7 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="str">
+      <c r="A61" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2343,7 +2648,7 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="str">
+      <c r="A62" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2351,7 +2656,7 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="str">
+      <c r="A63" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2359,7 +2664,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="str">
+      <c r="A64" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2367,7 +2672,7 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="str">
+      <c r="A65" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2375,16 +2680,16 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="str">
+      <c r="A66" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="9"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="str">
+      <c r="A67" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2392,7 +2697,7 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="str">
+      <c r="A68" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2400,7 +2705,7 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="str">
+      <c r="A69" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2408,7 +2713,7 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="str">
+      <c r="A70" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2416,7 +2721,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="str">
+      <c r="A71" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2424,7 +2729,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="str">
+      <c r="A72" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2432,7 +2737,7 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="str">
+      <c r="A73" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2440,7 +2745,7 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="str">
+      <c r="A74" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2448,7 +2753,7 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="str">
+      <c r="A75" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2456,7 +2761,7 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="str">
+      <c r="A76" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2464,7 +2769,7 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="str">
+      <c r="A77" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2472,7 +2777,7 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="str">
+      <c r="A78" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2480,7 +2785,7 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="str">
+      <c r="A79" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2488,7 +2793,7 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="str">
+      <c r="A80" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2496,7 +2801,7 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="str">
+      <c r="A81" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2504,7 +2809,7 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="str">
+      <c r="A82" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2512,7 +2817,7 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="str">
+      <c r="A83" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2520,7 +2825,7 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="str">
+      <c r="A84" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2528,7 +2833,7 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="str">
+      <c r="A85" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2536,7 +2841,7 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="str">
+      <c r="A86" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2544,7 +2849,7 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="str">
+      <c r="A87" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2552,7 +2857,7 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="str">
+      <c r="A88" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2560,7 +2865,7 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="str">
+      <c r="A89" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2568,7 +2873,7 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="str">
+      <c r="A90" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2576,7 +2881,7 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="str">
+      <c r="A91" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2584,7 +2889,7 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="str">
+      <c r="A92" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2592,7 +2897,7 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="str">
+      <c r="A93" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2600,7 +2905,7 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="str">
+      <c r="A94" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2608,7 +2913,7 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="str">
+      <c r="A95" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2616,7 +2921,7 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="str">
+      <c r="A96" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2624,7 +2929,7 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="str">
+      <c r="A97" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2632,7 +2937,7 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="str">
+      <c r="A98" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2640,7 +2945,7 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="str">
+      <c r="A99" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2648,7 +2953,7 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="str">
+      <c r="A100" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2656,7 +2961,7 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="str">
+      <c r="A101" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2664,7 +2969,7 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="str">
+      <c r="A102" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2672,7 +2977,7 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="str">
+      <c r="A103" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2680,7 +2985,7 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="str">
+      <c r="A104" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2688,7 +2993,7 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="str">
+      <c r="A105" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2696,7 +3001,7 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="str">
+      <c r="A106" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2704,7 +3009,7 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="str">
+      <c r="A107" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2712,7 +3017,7 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="str">
+      <c r="A108" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2720,7 +3025,7 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="str">
+      <c r="A109" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2728,7 +3033,7 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="str">
+      <c r="A110" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2736,7 +3041,7 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="str">
+      <c r="A111" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2744,7 +3049,7 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="str">
+      <c r="A112" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2752,7 +3057,7 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="str">
+      <c r="A113" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2760,34 +3065,34 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="str">
+      <c r="A114" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D114" s="4"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="7"/>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="str">
+      <c r="A115" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="22"/>
+      <c r="E115" s="14"/>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="str">
+      <c r="A116" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="22"/>
+      <c r="E116" s="14"/>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="str">
+      <c r="A117" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2795,7 +3100,7 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="str">
+      <c r="A118" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2803,7 +3108,7 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="str">
+      <c r="A119" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2811,7 +3116,7 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="str">
+      <c r="A120" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2819,7 +3124,7 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="str">
+      <c r="A121" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2827,16 +3132,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="str">
+      <c r="A122" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="B122" s="11"/>
       <c r="D122" s="4"/>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="str">
+      <c r="A123" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2844,7 +3148,7 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="str">
+      <c r="A124" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2852,16 +3156,15 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="str">
+      <c r="A125" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
-      <c r="C125" s="14"/>
       <c r="D125" s="4"/>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="str">
+      <c r="A126" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2869,7 +3172,7 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="str">
+      <c r="A127" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2877,7 +3180,7 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="str">
+      <c r="A128" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2885,7 +3188,7 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="str">
+      <c r="A129" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2893,25 +3196,25 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="str">
+      <c r="A130" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D130" s="4"/>
-      <c r="E130" s="23"/>
+      <c r="E130" s="15"/>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="str">
+      <c r="A131" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
       <c r="D131" s="4"/>
-      <c r="E131" s="23"/>
+      <c r="E131" s="15"/>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="str">
+      <c r="A132" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
       </c>
@@ -2922,6 +3225,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G118">
     <sortCondition ref="A5:A118"/>
   </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2935,1555 +3239,1611 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="118.1640625" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="118.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>85</v>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>86</v>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C17" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="str">
+      <c r="A59" t="str">
         <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="C59"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="str">
+      <c r="A60" t="str">
         <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="str">
+      <c r="A61" t="str">
         <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="str">
+      <c r="A62" t="str">
         <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="str">
+      <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="str">
+      <c r="A64" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="str">
+      <c r="A65" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="str">
+      <c r="A66" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="str">
+      <c r="A67" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C67" s="6"/>
+      <c r="C67"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="str">
+      <c r="A68" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C68" s="6"/>
+      <c r="C68"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="str">
+      <c r="A69" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="str">
+      <c r="A70" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="str">
+      <c r="A71" t="str">
         <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="str">
+      <c r="A72" t="str">
         <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="str">
+      <c r="A73" t="str">
         <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="str">
+      <c r="A74" t="str">
         <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="str">
+      <c r="A75" t="str">
         <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="str">
+      <c r="A76" t="str">
         <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="str">
+      <c r="A77" t="str">
         <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="str">
+      <c r="A78" t="str">
         <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="str">
+      <c r="A79" t="str">
         <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="str">
+      <c r="A80" t="str">
         <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="str">
+      <c r="A81" t="str">
         <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="str">
+      <c r="A82" t="str">
         <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="str">
+      <c r="A83" t="str">
         <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="str">
+      <c r="A84" t="str">
         <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="C84"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="str">
+      <c r="A85" t="str">
         <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="str">
+      <c r="A86" t="str">
         <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="13"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="str">
+      <c r="A87" t="str">
         <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="str">
+      <c r="A88" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="str">
+      <c r="A89" t="str">
         <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="str">
+      <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
+      <c r="C90"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="str">
+      <c r="A91" t="str">
         <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="str">
+      <c r="A92" t="str">
         <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="6"/>
+      <c r="C92"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="str">
+      <c r="A93" t="str">
         <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="6"/>
+      <c r="C93"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="str">
+      <c r="A94" t="str">
         <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="str">
+      <c r="A95" t="str">
         <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="str">
+      <c r="A96" t="str">
         <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="str">
+      <c r="A97" t="str">
         <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="str">
+      <c r="A98" t="str">
         <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="str">
+      <c r="A99" t="str">
         <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="str">
+      <c r="A100" t="str">
         <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="str">
+      <c r="A101" t="str">
         <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="str">
+      <c r="A102" t="str">
         <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B102" s="7"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="str">
+      <c r="A103" t="str">
         <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="str">
+      <c r="A104" t="str">
         <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="str">
+      <c r="A105" t="str">
         <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C105" s="6"/>
+      <c r="C105"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="str">
+      <c r="A106" t="str">
         <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="5"/>
+      <c r="C106"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="str">
+      <c r="A107" t="str">
         <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="str">
+      <c r="A108" t="str">
         <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="5"/>
+      <c r="C108"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="str">
+      <c r="A109" t="str">
         <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="C109"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="str">
+      <c r="A110" t="str">
         <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="str">
+      <c r="A111" t="str">
         <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C111" s="6"/>
+      <c r="C111"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="str">
+      <c r="A112" t="str">
         <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="str">
+      <c r="A113" t="str">
         <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C113" s="6"/>
+      <c r="C113"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="str">
+      <c r="A114" t="str">
         <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C114" s="6"/>
+      <c r="C114"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="str">
+      <c r="A115" t="str">
         <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="str">
+      <c r="A116" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="5"/>
+      <c r="C116"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="str">
+      <c r="A117" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="str">
+      <c r="A118" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="str">
+      <c r="A119" t="str">
         <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="str">
+      <c r="A120" t="str">
         <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="str">
+      <c r="A121" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="str">
+      <c r="A122" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C122" s="6"/>
+      <c r="C122"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="str">
+      <c r="A123" t="str">
         <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="str">
+      <c r="A124" t="str">
         <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="str">
+      <c r="A125" t="str">
         <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="str">
+      <c r="A126" t="str">
         <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C126" s="6"/>
+      <c r="C126"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="str">
+      <c r="A127" t="str">
         <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="str">
+      <c r="A128" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="str">
+      <c r="A129" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="15" t="str">
+      <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="str">
+      <c r="A131" t="str">
         <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="str">
+      <c r="A132" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="str">
+      <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="16"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="str">
+      <c r="A134" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C134" s="6"/>
+      <c r="C134"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="str">
+      <c r="A135" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="5"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="str">
+      <c r="A136" t="str">
         <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="str">
+      <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C137" s="6"/>
+      <c r="C137"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="str">
+      <c r="A138" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="5"/>
+      <c r="C138"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="str">
+      <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C139" s="6"/>
+      <c r="C139"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="str">
+      <c r="A140" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="str">
+      <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="str">
+      <c r="A142" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="str">
+      <c r="A143" t="str">
         <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="str">
+      <c r="A144" t="str">
         <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
+      <c r="C144"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="str">
+      <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
+      <c r="C145"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="str">
+      <c r="A146" t="str">
         <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
+      <c r="C146"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="str">
+      <c r="A147" t="str">
         <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C147" s="6"/>
+      <c r="C147"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="str">
+      <c r="A148" t="str">
         <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="str">
+      <c r="A149" t="str">
         <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="str">
+      <c r="A150" t="str">
         <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="str">
+      <c r="A151" t="str">
         <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="str">
+      <c r="A152" t="str">
         <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="str">
+      <c r="A153" t="str">
         <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="str">
+      <c r="A154" t="str">
         <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B154" s="3"/>
-      <c r="C154" s="6"/>
+      <c r="C154"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="str">
+      <c r="A155" t="str">
         <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B155" s="3"/>
-      <c r="C155" s="6"/>
+      <c r="C155"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="str">
+      <c r="A156" t="str">
         <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
       <c r="B156" s="3"/>
-      <c r="C156" s="6"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="str">
+      <c r="A157" t="str">
         <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C157" s="6"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="str">
+      <c r="A158" t="str">
         <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C158" s="6"/>
+      <c r="C158"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="str">
+      <c r="A159" t="str">
         <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="15" t="str">
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="str">
         <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B160" s="5"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="str">
+      <c r="A161" t="str">
         <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C161" s="6"/>
+      <c r="C161"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="15" t="str">
+      <c r="A162" t="str">
         <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C162" s="6"/>
+      <c r="C162"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="str">
+      <c r="A163" t="str">
         <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
+      <c r="C163"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="15" t="str">
+      <c r="A164" t="str">
         <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+      <c r="C164"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="21" t="str">
+      <c r="A165" t="str">
         <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="C165"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="str">
+      <c r="A166" t="str">
         <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="str">
+      <c r="A167" t="str">
         <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="str">
+      <c r="A168" t="str">
         <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="15" t="str">
+      <c r="A169" t="str">
         <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="str">
+      <c r="A170" t="str">
         <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="str">
+      <c r="A171" t="str">
         <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B171" s="10"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="str">
+      <c r="A172" t="str">
         <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="str">
+      <c r="A173" t="str">
         <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="str">
+      <c r="A174" t="str">
         <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="str">
+      <c r="A175" t="str">
         <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="str">
+      <c r="A176" t="str">
         <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C176" s="6"/>
+      <c r="C176"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="str">
+      <c r="A177" t="str">
         <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
+      <c r="C177"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="str">
+      <c r="A178" t="str">
         <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="str">
+      <c r="A179" t="str">
         <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="str">
+      <c r="A180" t="str">
         <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="15" t="str">
+      <c r="A181" t="str">
         <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C181" s="6"/>
+      <c r="C181"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="str">
+      <c r="A182" t="str">
         <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C182" s="6"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="str">
+      <c r="A183" t="str">
         <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="str">
+      <c r="A184" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C184" s="6"/>
+      <c r="C184"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="str">
+      <c r="A185" t="str">
         <f>IF(ISNA(VLOOKUP(B185,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C185" s="6"/>
+      <c r="C185"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="str">
+      <c r="A186" t="str">
         <f>IF(ISNA(VLOOKUP(B186,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C186" s="6"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="str">
+      <c r="A187" t="str">
         <f>IF(ISNA(VLOOKUP(B187,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="str">
+      <c r="A188" t="str">
         <f>IF(ISNA(VLOOKUP(B188,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="str">
+      <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="str">
+      <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="str">
+      <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="str">
+      <c r="A192" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="15" t="str">
+      <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!C$2:C$2003,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
